--- a/HpApiClockify/HpClockfiyApi/HP-IND-24-06/HP-IND-24-06-A23-003.xlsx
+++ b/HpApiClockify/HpClockfiyApi/HP-IND-24-06/HP-IND-24-06-A23-003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,7 +504,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4959.850000</t>
+          <t>16394.290000</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -518,13 +518,13 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Isaias Briones</t>
+          <t>Dilwinder Singh</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>24.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -534,12 +534,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>89.760000</t>
+          <t>69.470000</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1436.16</t>
+          <t>1667.28</t>
         </is>
       </c>
     </row>
@@ -552,13 +552,13 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Rodney Erickson-Fitl</t>
+          <t>Isaias Briones</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>36.00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -568,12 +568,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>69.470000</t>
+          <t>89.760000</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>382.08</t>
+          <t>3231.36</t>
         </is>
       </c>
     </row>
@@ -586,13 +586,13 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Stephanie Alexis</t>
+          <t>Michelle Tost</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>35.00</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -602,12 +602,114 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>138.450000</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>3461.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Rodney Erickson-Fitl</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>11.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>hr</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>69.470000</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>798.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Stephanie Alexis</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>69.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>hr</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>89.760000</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>3141.60</t>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>6193.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Timothy Mohamed</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>hr</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>69.470000</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1042.07</t>
         </is>
       </c>
     </row>
